--- a/biology/Médecine/Capuchon_du_clitoris/Capuchon_du_clitoris.xlsx
+++ b/biology/Médecine/Capuchon_du_clitoris/Capuchon_du_clitoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le capuchon du clitoris ou prépuce clitoridien (en latin, preputium clitoridis) est un pli de peau qui entoure et protège le gland du clitoris. Il se trouve dans le prolongement supérieur des petites lèvres. Il est l'homologue du prépuce. Situé dans une zone érogène, sa stimulation joue un rôle important dans les pratiques de masturbation féminine, bien que de façon variable en fonction des profils anatomiques.
 </t>
@@ -511,9 +523,11 @@
           <t>Développement et variation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez la femme, le capuchon clitoridien est formé au stade fœtal par la lamelle cellulaire. Cette dernière se développe sur le côté dorsal du clitoris et fusionne in fine avec lui[1]. Le capuchon clitoridien varie en taille, forme et épaisseur. Certaines femmes ont de grands capuchons qui recouvrent complètement le gland clitoridien, d'autres ont des capuchons plus petits qui ne couvrent pas toute la longueur du gland clitoridien, le laissant exposé en permanence.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez la femme, le capuchon clitoridien est formé au stade fœtal par la lamelle cellulaire. Cette dernière se développe sur le côté dorsal du clitoris et fusionne in fine avec lui. Le capuchon clitoridien varie en taille, forme et épaisseur. Certaines femmes ont de grands capuchons qui recouvrent complètement le gland clitoridien, d'autres ont des capuchons plus petits qui ne couvrent pas toute la longueur du gland clitoridien, le laissant exposé en permanence.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Stimulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le capuchon clitoridien protège le gland clitoridien. En principe, le gland clitoridien lui-même est trop sensible pour être stimulé directement, comme dans les cas où le capuchon est rétracté[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le capuchon clitoridien protège le gland clitoridien. En principe, le gland clitoridien lui-même est trop sensible pour être stimulé directement, comme dans les cas où le capuchon est rétracté.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Mutilation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ablation ou l'excision totale ou partielle du capuchon du clitoris font partie des mutilations génitales féminines. Elles sont illégales dans la grande majorité des pays du monde mais continuent d'être pratiquées[3]. La pratique dite du « frottage » du capuchon constitue aussi une mutilation sexuelle ; le « frottage » du capuchon consistant soit à piquer le prépuce avec une aiguille, soit à le frotter avec une compresse antiseptique, un bout de bambou ou une racine de curcuma, comme le veut une tradition séculaire en Indonésie[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ablation ou l'excision totale ou partielle du capuchon du clitoris font partie des mutilations génitales féminines. Elles sont illégales dans la grande majorité des pays du monde mais continuent d'être pratiquées. La pratique dite du « frottage » du capuchon constitue aussi une mutilation sexuelle ; le « frottage » du capuchon consistant soit à piquer le prépuce avec une aiguille, soit à le frotter avec une compresse antiseptique, un bout de bambou ou une racine de curcuma, comme le veut une tradition séculaire en Indonésie. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Modification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un piercing du capuchon clitoridien est un piercing génital féminin à travers le capuchon clitoridien entourant le clitoris. Il existe deux principaux types de perçage de capuchon : le perçage de capuchon clitoridien vertical et le perçage de capuchon clitoridien horizontal. Comme son nom l'indique, la différence réside dans la direction dans laquelle le piercing est orienté dans la peau au-dessus du clitoris. Aucun de ces piercings ne pénètre dans le clitoris lui-même.
 </t>
